--- a/Catan_Game_Play_Data.xlsx
+++ b/Catan_Game_Play_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qikechen/Documents/qTune Billboard Data Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qikechen/Documents/GitHub/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F64288-276B-754F-9A05-8ECBD462D638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4413DE-66A2-7C4B-8F99-F2AD10EE97AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14360" xr2:uid="{6E083C50-D227-9847-BA72-578ED8FECAA1}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="25180" windowHeight="14360" xr2:uid="{6E083C50-D227-9847-BA72-578ED8FECAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P1S1</t>
+  </si>
+  <si>
+    <t>P2S1</t>
+  </si>
+  <si>
+    <t>P3S1</t>
+  </si>
+  <si>
+    <t>P4S1</t>
+  </si>
+  <si>
+    <t>P4S2</t>
+  </si>
+  <si>
+    <t>P3S2</t>
+  </si>
+  <si>
+    <t>P2S2</t>
+  </si>
+  <si>
+    <t>P1S2</t>
+  </si>
+  <si>
+    <t>﻿diceSetupHexOffset</t>
+  </si>
+  <si>
+    <t>﻿diceSetupClockwise</t>
+  </si>
+  <si>
+    <t>Tile 1</t>
+  </si>
+  <si>
+    <t>Tile 2</t>
+  </si>
+  <si>
+    <t>Tile 3</t>
+  </si>
+  <si>
+    <t>Tile 4</t>
+  </si>
+  <si>
+    <t>Tile 5</t>
+  </si>
+  <si>
+    <t>Tile 6</t>
+  </si>
+  <si>
+    <t>Tile 7</t>
+  </si>
+  <si>
+    <t>Tile 8</t>
+  </si>
+  <si>
+    <t>Tile 9</t>
+  </si>
+  <si>
+    <t>Tile 10</t>
+  </si>
+  <si>
+    <t>Tile 11</t>
+  </si>
+  <si>
+    <t>Tile 12</t>
+  </si>
+  <si>
+    <t>Tile 13</t>
+  </si>
+  <si>
+    <t>Tile 14</t>
+  </si>
+  <si>
+    <t>Tile 15</t>
+  </si>
+  <si>
+    <t>Tile 16</t>
+  </si>
+  <si>
+    <t>Tile 17</t>
+  </si>
+  <si>
+    <t>Tile 18</t>
+  </si>
+  <si>
+    <t>Tile 19</t>
+  </si>
+  <si>
+    <t>Port 1</t>
+  </si>
+  <si>
+    <t>Port 2</t>
+  </si>
+  <si>
+    <t>Port 3</t>
+  </si>
+  <si>
+    <t>Port 4</t>
+  </si>
+  <si>
+    <t>Port 5</t>
+  </si>
+  <si>
+    <t>Port 6</t>
+  </si>
+  <si>
+    <t>Port 7</t>
+  </si>
+  <si>
+    <t>Port 8</t>
+  </si>
+  <si>
+    <t>Port 9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,14 +526,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F819C6-D7D7-8244-9A91-83D3326BD4CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AF1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>